--- a/results_final/sigma_LH.xlsx
+++ b/results_final/sigma_LH.xlsx
@@ -519,91 +519,91 @@
         <v>0.3905760977195454</v>
       </c>
       <c r="D2">
-        <v>0.3207475503512656</v>
+        <v>0.320761072410146</v>
       </c>
       <c r="E2">
-        <v>0.2737880286880243</v>
+        <v>0.2738223224101414</v>
       </c>
       <c r="F2">
-        <v>0.2410477783322811</v>
+        <v>0.2411075848854658</v>
       </c>
       <c r="G2">
-        <v>0.2175427822236996</v>
+        <v>0.2176318807092617</v>
       </c>
       <c r="H2">
-        <v>0.200258658422021</v>
+        <v>0.2003805166859633</v>
       </c>
       <c r="I2">
-        <v>0.1872943810383135</v>
+        <v>0.1874524252275934</v>
       </c>
       <c r="J2">
-        <v>0.1774068508906889</v>
+        <v>0.177604566071721</v>
       </c>
       <c r="K2">
-        <v>0.1697573118190774</v>
+        <v>0.1699982660228553</v>
       </c>
       <c r="L2">
-        <v>0.1637643058607199</v>
+        <v>0.1640521396537387</v>
       </c>
       <c r="M2">
-        <v>0.1590152568602206</v>
+        <v>0.1593536584249082</v>
       </c>
       <c r="N2">
-        <v>0.1552115402264829</v>
+        <v>0.1556042157417292</v>
       </c>
       <c r="O2">
-        <v>0.1521333293564822</v>
+        <v>0.1525839735486143</v>
       </c>
       <c r="P2">
-        <v>0.149616482099456</v>
+        <v>0.1501287513461025</v>
       </c>
       <c r="Q2">
-        <v>0.1475369639031081</v>
+        <v>0.1481144529574551</v>
       </c>
       <c r="R2">
-        <v>0.1458001114136042</v>
+        <v>0.1464463340960155</v>
       </c>
       <c r="S2">
-        <v>0.1443330799579958</v>
+        <v>0.1450514537598599</v>
       </c>
       <c r="T2">
-        <v>0.1430794323884996</v>
+        <v>0.1438732667117215</v>
       </c>
       <c r="U2">
-        <v>0.1419951982869586</v>
+        <v>0.1428676859290254</v>
       </c>
       <c r="V2">
-        <v>0.1410459623790633</v>
+        <v>0.1420001738270097</v>
       </c>
       <c r="W2">
-        <v>0.1402046862165365</v>
+        <v>0.1412435663085144</v>
       </c>
       <c r="X2">
-        <v>0.1394500607578625</v>
+        <v>0.1405764272923225</v>
       </c>
       <c r="Y2">
-        <v>0.1387652489322672</v>
+        <v>0.1399817928411513</v>
       </c>
       <c r="Z2">
-        <v>0.138136918378223</v>
+        <v>0.1394462051246257</v>
       </c>
       <c r="AA2">
-        <v>0.1375544925353777</v>
+        <v>0.1389589644427605</v>
       </c>
       <c r="AB2">
-        <v>0.1370095676528186</v>
+        <v>0.1385115469186837</v>
       </c>
       <c r="AC2">
-        <v>0.136495456923416</v>
+        <v>0.1380971491132214</v>
       </c>
       <c r="AD2">
-        <v>0.1360068327119031</v>
+        <v>0.1377103305677067</v>
       </c>
       <c r="AE2">
-        <v>0.1355394449234563</v>
+        <v>0.1373467323557543</v>
       </c>
       <c r="AF2">
-        <v>0.1350898987642289</v>
+        <v>0.1370028549245851</v>
       </c>
     </row>
     <row r="3" spans="1:32">
@@ -614,94 +614,94 @@
         <v>0.3342371379733693</v>
       </c>
       <c r="C3">
-        <v>0.2600884103700621</v>
+        <v>0.2600884103700619</v>
       </c>
       <c r="D3">
-        <v>0.2118763343501447</v>
+        <v>0.2119294886267684</v>
       </c>
       <c r="E3">
-        <v>0.1790511226381014</v>
+        <v>0.1791846108238534</v>
       </c>
       <c r="F3">
-        <v>0.1558242463266729</v>
+        <v>0.1560544320322287</v>
       </c>
       <c r="G3">
-        <v>0.1388418692727287</v>
+        <v>0.1391805709389946</v>
       </c>
       <c r="H3">
-        <v>0.1260678604235629</v>
+        <v>0.1265250045690021</v>
       </c>
       <c r="I3">
-        <v>0.1162153628269175</v>
+        <v>0.1168000928665829</v>
       </c>
       <c r="J3">
-        <v>0.1084424094707447</v>
+        <v>0.1091635133540661</v>
       </c>
       <c r="K3">
-        <v>0.1021814508516646</v>
+        <v>0.1030474849079109</v>
       </c>
       <c r="L3">
-        <v>0.09703999903008129</v>
+        <v>0.09805927981861301</v>
       </c>
       <c r="M3">
-        <v>0.09274061863448355</v>
+        <v>0.09392116338877929</v>
       </c>
       <c r="N3">
-        <v>0.08908350101819822</v>
+        <v>0.0904329550125236</v>
       </c>
       <c r="O3">
-        <v>0.08592243650581581</v>
+        <v>0.08744800529813992</v>
       </c>
       <c r="P3">
-        <v>0.08314897865564916</v>
+        <v>0.08485737299416024</v>
       </c>
       <c r="Q3">
-        <v>0.0806817576221773</v>
+        <v>0.08257915360709105</v>
       </c>
       <c r="R3">
-        <v>0.07845911332314506</v>
+        <v>0.08055112774766277</v>
       </c>
       <c r="S3">
-        <v>0.07643391978695087</v>
+        <v>0.07872559925443051</v>
       </c>
       <c r="T3">
-        <v>0.07456988733402604</v>
+        <v>0.07706570915913502</v>
       </c>
       <c r="U3">
-        <v>0.0728388814188077</v>
+        <v>0.07554276414579093</v>
       </c>
       <c r="V3">
-        <v>0.07121895359598419</v>
+        <v>0.07413427502530291</v>
       </c>
       <c r="W3">
-        <v>0.06969287946917038</v>
+        <v>0.07282250026728951</v>
       </c>
       <c r="X3">
-        <v>0.06824706284280206</v>
+        <v>0.07159335405334223</v>
       </c>
       <c r="Y3">
-        <v>0.06687070778933553</v>
+        <v>0.07043558082670882</v>
       </c>
       <c r="Z3">
-        <v>0.06555518891789353</v>
+        <v>0.06934012688225168</v>
       </c>
       <c r="AA3">
-        <v>0.064293569685036</v>
+        <v>0.06829965907556008</v>
       </c>
       <c r="AB3">
-        <v>0.06308023219302164</v>
+        <v>0.06730819430783916</v>
       </c>
       <c r="AC3">
-        <v>0.06191059153281634</v>
+        <v>0.06636081302526897</v>
       </c>
       <c r="AD3">
-        <v>0.06078087461681531</v>
+        <v>0.06545343682947641</v>
       </c>
       <c r="AE3">
-        <v>0.05968794844564282</v>
+        <v>0.06458265526724798</v>
       </c>
       <c r="AF3">
-        <v>0.05862918642409569</v>
+        <v>0.06374559051323979</v>
       </c>
     </row>
     <row r="4" spans="1:32">
@@ -715,91 +715,91 @@
         <v>0.3152491828189724</v>
       </c>
       <c r="D4">
-        <v>0.2930455970848543</v>
+        <v>0.2931081552938582</v>
       </c>
       <c r="E4">
-        <v>0.2754006976075379</v>
+        <v>0.2755754037432395</v>
       </c>
       <c r="F4">
-        <v>0.2611007450811796</v>
+        <v>0.2614289197851096</v>
       </c>
       <c r="G4">
-        <v>0.2492963989186602</v>
+        <v>0.2498138096813697</v>
       </c>
       <c r="H4">
-        <v>0.2393810973196552</v>
+        <v>0.2401195503484276</v>
       </c>
       <c r="I4">
-        <v>0.230914091938542</v>
+        <v>0.2319023746429585</v>
       </c>
       <c r="J4">
-        <v>0.2235703754270147</v>
+        <v>0.2248348196028837</v>
       </c>
       <c r="K4">
-        <v>0.2171072791402519</v>
+        <v>0.218672102175615</v>
       </c>
       <c r="L4">
-        <v>0.2113416819353776</v>
+        <v>0.2132291992040308</v>
       </c>
       <c r="M4">
-        <v>0.2061341405946377</v>
+        <v>0.208364904681123</v>
       </c>
       <c r="N4">
-        <v>0.2013776384291829</v>
+        <v>0.203970538394644</v>
       </c>
       <c r="O4">
-        <v>0.19698947999869</v>
+        <v>0.1999618202682814</v>
       </c>
       <c r="P4">
-        <v>0.1929053703618183</v>
+        <v>0.196272940463032</v>
       </c>
       <c r="Q4">
-        <v>0.1890750376611024</v>
+        <v>0.1928521789234479</v>
       </c>
       <c r="R4">
-        <v>0.1854589631436774</v>
+        <v>0.1896586353632317</v>
       </c>
       <c r="S4">
-        <v>0.1820259168948893</v>
+        <v>0.1866597661247353</v>
       </c>
       <c r="T4">
-        <v>0.1787510869260636</v>
+        <v>0.1838295145074209</v>
       </c>
       <c r="U4">
-        <v>0.1756146498586768</v>
+        <v>0.1811468822595621</v>
       </c>
       <c r="V4">
-        <v>0.1726006732517013</v>
+        <v>0.1785948320384876</v>
       </c>
       <c r="W4">
-        <v>0.1696962689246777</v>
+        <v>0.1761594401331291</v>
       </c>
       <c r="X4">
-        <v>0.1668909374824637</v>
+        <v>0.1738292396990324</v>
       </c>
       <c r="Y4">
-        <v>0.1641760592912934</v>
+        <v>0.1715947098520283</v>
       </c>
       <c r="Z4">
-        <v>0.1615444981436402</v>
+        <v>0.1694478769754914</v>
       </c>
       <c r="AA4">
-        <v>0.1589902919639739</v>
+        <v>0.1673820027127349</v>
       </c>
       <c r="AB4">
-        <v>0.156508410958606</v>
+        <v>0.1653913391586491</v>
       </c>
       <c r="AC4">
-        <v>0.154094568163341</v>
+        <v>0.1634709363013928</v>
       </c>
       <c r="AD4">
-        <v>0.1517450707895319</v>
+        <v>0.1616164901960797</v>
       </c>
       <c r="AE4">
-        <v>0.1494567033961572</v>
+        <v>0.1598242229637325</v>
       </c>
       <c r="AF4">
-        <v>0.147226635928107</v>
+        <v>0.1580907877068338</v>
       </c>
     </row>
     <row r="5" spans="1:32">
@@ -813,91 +813,91 @@
         <v>0.4783134654375992</v>
       </c>
       <c r="D5">
-        <v>0.294763476016733</v>
+        <v>0.2947813195181262</v>
       </c>
       <c r="E5">
-        <v>0.1999079892736645</v>
+        <v>0.1999439447561621</v>
       </c>
       <c r="F5">
-        <v>0.146375044293768</v>
+        <v>0.146427194869556</v>
       </c>
       <c r="G5">
-        <v>0.1139547121138965</v>
+        <v>0.1140217344620226</v>
       </c>
       <c r="H5">
-        <v>0.09317603457820899</v>
+        <v>0.09325745782939582</v>
       </c>
       <c r="I5">
-        <v>0.0792365340731903</v>
+        <v>0.07933255857251549</v>
       </c>
       <c r="J5">
-        <v>0.069532860084947</v>
+        <v>0.06964415828024456</v>
       </c>
       <c r="K5">
-        <v>0.06257103065628475</v>
+        <v>0.06269859713477341</v>
       </c>
       <c r="L5">
-        <v>0.05745069063210214</v>
+        <v>0.0575957370501103</v>
       </c>
       <c r="M5">
-        <v>0.05360582753145821</v>
+        <v>0.05376970899088844</v>
       </c>
       <c r="N5">
-        <v>0.05066737298696348</v>
+        <v>0.05085153516135747</v>
       </c>
       <c r="O5">
-        <v>0.04838694787877114</v>
+        <v>0.04859288788221525</v>
       </c>
       <c r="P5">
-        <v>0.04659277277400781</v>
+        <v>0.04682200944894508</v>
       </c>
       <c r="Q5">
-        <v>0.04516322631778104</v>
+        <v>0.04541727730211775</v>
       </c>
       <c r="R5">
-        <v>0.0440104565898684</v>
+        <v>0.04429082051932314</v>
       </c>
       <c r="S5">
-        <v>0.04306991547302157</v>
+        <v>0.0433780582452046</v>
       </c>
       <c r="T5">
-        <v>0.04229349116386608</v>
+        <v>0.04263083551279034</v>
       </c>
       <c r="U5">
-        <v>0.0416448885818347</v>
+        <v>0.04201280639433162</v>
       </c>
       <c r="V5">
-        <v>0.04109645089508747</v>
+        <v>0.0414962578081502</v>
       </c>
       <c r="W5">
-        <v>0.04062692738013876</v>
+        <v>0.04105987926708677</v>
       </c>
       <c r="X5">
-        <v>0.04021987675348728</v>
+        <v>0.0406871677569604</v>
       </c>
       <c r="Y5">
-        <v>0.03986250619841594</v>
+        <v>0.04036526800975888</v>
       </c>
       <c r="Z5">
-        <v>0.03954481492811471</v>
+        <v>0.04008411705039764</v>
       </c>
       <c r="AA5">
-        <v>0.03925895441400086</v>
+        <v>0.03983580518147643</v>
       </c>
       <c r="AB5">
-        <v>0.03899874526660233</v>
+        <v>0.03961409342710939</v>
       </c>
       <c r="AC5">
-        <v>0.03875930903091079</v>
+        <v>0.03941404572928771</v>
       </c>
       <c r="AD5">
-        <v>0.03853678536853329</v>
+        <v>0.03923174639804757</v>
       </c>
       <c r="AE5">
-        <v>0.03832811340393929</v>
+        <v>0.03906408161870358</v>
       </c>
       <c r="AF5">
-        <v>0.03813086175837263</v>
+        <v>0.03890856956249469</v>
       </c>
     </row>
     <row r="6" spans="1:32">
@@ -911,91 +911,91 @@
         <v>0.4617406340821549</v>
       </c>
       <c r="D6">
-        <v>0.2985037015643058</v>
+        <v>0.2985492934453575</v>
       </c>
       <c r="E6">
-        <v>0.2100147088460563</v>
+        <v>0.2101100225886063</v>
       </c>
       <c r="F6">
-        <v>0.158109756052325</v>
+        <v>0.1582519168704128</v>
       </c>
       <c r="G6">
-        <v>0.1256622916356892</v>
+        <v>0.1258488428882327</v>
       </c>
       <c r="H6">
-        <v>0.104301667262811</v>
+        <v>0.1045317774095813</v>
       </c>
       <c r="I6">
-        <v>0.0896312591651677</v>
+        <v>0.08990556062227482</v>
       </c>
       <c r="J6">
-        <v>0.07919599666894617</v>
+        <v>0.07951621175832896</v>
       </c>
       <c r="K6">
-        <v>0.07155124007877078</v>
+        <v>0.07191984890509409</v>
       </c>
       <c r="L6">
-        <v>0.06580774283708314</v>
+        <v>0.06622772864719784</v>
       </c>
       <c r="M6">
-        <v>0.06139643886152418</v>
+        <v>0.06187109898644853</v>
       </c>
       <c r="N6">
-        <v>0.05794073618826467</v>
+        <v>0.05847354150350752</v>
       </c>
       <c r="O6">
-        <v>0.05518410682541618</v>
+        <v>0.05577859628346615</v>
       </c>
       <c r="P6">
-        <v>0.05294741423418099</v>
+        <v>0.05360711516039812</v>
       </c>
       <c r="Q6">
-        <v>0.05110287996766216</v>
+        <v>0.05183124785677672</v>
       </c>
       <c r="R6">
-        <v>0.04955769727136061</v>
+        <v>0.05035807079833702</v>
       </c>
       <c r="S6">
-        <v>0.04824342038886396</v>
+        <v>0.04911898856989984</v>
       </c>
       <c r="T6">
-        <v>0.04710891464840142</v>
+        <v>0.04806269383690834</v>
       </c>
       <c r="U6">
-        <v>0.04611556172134091</v>
+        <v>0.04715038059534384</v>
       </c>
       <c r="V6">
-        <v>0.04523392915548935</v>
+        <v>0.04635242016916066</v>
       </c>
       <c r="W6">
-        <v>0.04444141284454396</v>
+        <v>0.0456460088488582</v>
       </c>
       <c r="X6">
-        <v>0.04372053992828842</v>
+        <v>0.04501347485304064</v>
       </c>
       <c r="Y6">
-        <v>0.04305772892006926</v>
+        <v>0.04444104157142712</v>
       </c>
       <c r="Z6">
-        <v>0.04244237214683794</v>
+        <v>0.04391791232002355</v>
       </c>
       <c r="AA6">
-        <v>0.04186614914629586</v>
+        <v>0.0434355853851087</v>
       </c>
       <c r="AB6">
-        <v>0.04132250800547536</v>
+        <v>0.04298733645980315</v>
       </c>
       <c r="AC6">
-        <v>0.0408062704157336</v>
+        <v>0.0425678243547202</v>
       </c>
       <c r="AD6">
-        <v>0.04031332890696931</v>
+        <v>0.04217278853886769</v>
       </c>
       <c r="AE6">
-        <v>0.03984041344149163</v>
+        <v>0.04179881577151798</v>
       </c>
       <c r="AF6">
-        <v>0.03938491063773539</v>
+        <v>0.04144315916296148</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -1009,91 +1009,91 @@
         <v>0.8942357844094723</v>
       </c>
       <c r="D7">
-        <v>0.8198045574041178</v>
+        <v>0.8214568029568526</v>
       </c>
       <c r="E7">
-        <v>0.7387045879176173</v>
+        <v>0.7431365905435529</v>
       </c>
       <c r="F7">
-        <v>0.65670213397439</v>
+        <v>0.6645290772518287</v>
       </c>
       <c r="G7">
-        <v>0.5777101341720698</v>
+        <v>0.5891193805835159</v>
       </c>
       <c r="H7">
-        <v>0.5041266716785483</v>
+        <v>0.5189878053078849</v>
       </c>
       <c r="I7">
-        <v>0.4372115847239816</v>
+        <v>0.4551835578555478</v>
       </c>
       <c r="J7">
-        <v>0.3774262392891194</v>
+        <v>0.3980476898835537</v>
       </c>
       <c r="K7">
-        <v>0.3247077868289979</v>
+        <v>0.3474661101570158</v>
       </c>
       <c r="L7">
-        <v>0.2786748210731144</v>
+        <v>0.303054871232482</v>
       </c>
       <c r="M7">
-        <v>0.2387731013243203</v>
+        <v>0.2642887791379807</v>
       </c>
       <c r="N7">
-        <v>0.2043737672761452</v>
+        <v>0.2305863970382738</v>
       </c>
       <c r="O7">
-        <v>0.1748362161078941</v>
+        <v>0.2013633670901531</v>
       </c>
       <c r="P7">
-        <v>0.1495459153574259</v>
+        <v>0.1760637094268372</v>
       </c>
       <c r="Q7">
-        <v>0.1279351360652964</v>
+        <v>0.1541763901018699</v>
       </c>
       <c r="R7">
-        <v>0.1094924836778684</v>
+        <v>0.1352424038566602</v>
       </c>
       <c r="S7">
-        <v>0.09376538309382265</v>
+        <v>0.118856009515652</v>
       </c>
       <c r="T7">
-        <v>0.08035836211245764</v>
+        <v>0.1046625634683388</v>
       </c>
       <c r="U7">
-        <v>0.068929022152526</v>
+        <v>0.09235454751954064</v>
       </c>
       <c r="V7">
-        <v>0.05918291263785464</v>
+        <v>0.08166680085868652</v>
       </c>
       <c r="W7">
-        <v>0.05086806486823924</v>
+        <v>0.07237157098111466</v>
       </c>
       <c r="X7">
-        <v>0.04376963328761588</v>
+        <v>0.0642737386461735</v>
       </c>
       <c r="Y7">
-        <v>0.03770489105170722</v>
+        <v>0.05720640515223273</v>
       </c>
       <c r="Z7">
-        <v>0.03251869894014057</v>
+        <v>0.05102692597787548</v>
       </c>
       <c r="AA7">
-        <v>0.0280794878756981</v>
+        <v>0.04561341194255264</v>
       </c>
       <c r="AB7">
-        <v>0.02427574883632195</v>
+        <v>0.04086168294003368</v>
       </c>
       <c r="AC7">
-        <v>0.02101299831714953</v>
+        <v>0.03668264021512962</v>
       </c>
       <c r="AD7">
-        <v>0.01821117502151896</v>
+        <v>0.03300001461271686</v>
       </c>
       <c r="AE7">
-        <v>0.01580241903700694</v>
+        <v>0.02974844600407341</v>
       </c>
       <c r="AF7">
-        <v>0.01372918506599121</v>
+        <v>0.02687185047745985</v>
       </c>
     </row>
     <row r="8" spans="1:32">
@@ -1107,91 +1107,91 @@
         <v>0.4920265379592854</v>
       </c>
       <c r="D8">
-        <v>0.3926907856673305</v>
+        <v>0.3932900206849615</v>
       </c>
       <c r="E8">
-        <v>0.3193783456064349</v>
+        <v>0.3208284776036333</v>
       </c>
       <c r="F8">
-        <v>0.2637647991149739</v>
+        <v>0.2661422060433658</v>
       </c>
       <c r="G8">
-        <v>0.220574410699812</v>
+        <v>0.2238656311354427</v>
       </c>
       <c r="H8">
-        <v>0.1863526934982882</v>
+        <v>0.1904984028677724</v>
       </c>
       <c r="I8">
-        <v>0.158770508583098</v>
+        <v>0.1636889448977474</v>
       </c>
       <c r="J8">
-        <v>0.1362152720048863</v>
+        <v>0.1418151205551823</v>
       </c>
       <c r="K8">
-        <v>0.1175431252976262</v>
+        <v>0.123730809703342</v>
       </c>
       <c r="L8">
-        <v>0.1019244034577626</v>
+        <v>0.1086083005382691</v>
       </c>
       <c r="M8">
-        <v>0.0887448171219712</v>
+        <v>0.09583771272085008</v>
       </c>
       <c r="N8">
-        <v>0.07754080751534359</v>
+        <v>0.08496130290107815</v>
       </c>
       <c r="O8">
-        <v>0.06795637138552975</v>
+        <v>0.07562963575819208</v>
       </c>
       <c r="P8">
-        <v>0.05971367024645127</v>
+        <v>0.06757176913540555</v>
       </c>
       <c r="Q8">
-        <v>0.05259266460024248</v>
+        <v>0.06057460445750387</v>
       </c>
       <c r="R8">
-        <v>0.04641676351026945</v>
+        <v>0.05446834305489134</v>
       </c>
       <c r="S8">
-        <v>0.04104254995952286</v>
+        <v>0.04911608002418976</v>
       </c>
       <c r="T8">
-        <v>0.03635231040486171</v>
+        <v>0.04440624642698628</v>
       </c>
       <c r="U8">
-        <v>0.03224852174145239</v>
+        <v>0.04024704154399618</v>
       </c>
       <c r="V8">
-        <v>0.02864972363481062</v>
+        <v>0.03656227510228992</v>
       </c>
       <c r="W8">
-        <v>0.02548738459909235</v>
+        <v>0.03328822188385618</v>
       </c>
       <c r="X8">
-        <v>0.02270349033471199</v>
+        <v>0.03037121259683618</v>
       </c>
       <c r="Y8">
-        <v>0.02024866385112285</v>
+        <v>0.02776576684861694</v>
       </c>
       <c r="Z8">
-        <v>0.01808068217535746</v>
+        <v>0.02543313005652823</v>
       </c>
       <c r="AA8">
-        <v>0.01616329257666443</v>
+        <v>0.02334011484454316</v>
       </c>
       <c r="AB8">
-        <v>0.01446525781611198</v>
+        <v>0.02145817453843978</v>
       </c>
       <c r="AC8">
-        <v>0.01295957864457473</v>
+        <v>0.01976265549543259</v>
       </c>
       <c r="AD8">
-        <v>0.01162285508116401</v>
+        <v>0.01823218865699456</v>
       </c>
       <c r="AE8">
-        <v>0.01043475756247698</v>
+        <v>0.01684819055880463</v>
       </c>
       <c r="AF8">
-        <v>0.009377585986592579</v>
+        <v>0.01559445120144906</v>
       </c>
     </row>
     <row r="9" spans="1:32">
@@ -1205,91 +1205,91 @@
         <v>0.3533422012297991</v>
       </c>
       <c r="D9">
-        <v>0.2712637224539877</v>
+        <v>0.2713191386197762</v>
       </c>
       <c r="E9">
-        <v>0.2187873332278953</v>
+        <v>0.2189201512520976</v>
       </c>
       <c r="F9">
-        <v>0.1835750991966616</v>
+        <v>0.1837958979760671</v>
       </c>
       <c r="G9">
-        <v>0.1589819774859567</v>
+        <v>0.1592977291244929</v>
       </c>
       <c r="H9">
-        <v>0.1412178291521351</v>
+        <v>0.1416346902842846</v>
       </c>
       <c r="I9">
-        <v>0.1280119606167605</v>
+        <v>0.1285362113154639</v>
       </c>
       <c r="J9">
-        <v>0.1179452141726016</v>
+        <v>0.1185834932750508</v>
       </c>
       <c r="K9">
-        <v>0.1100976967454023</v>
+        <v>0.1108569725116957</v>
       </c>
       <c r="L9">
-        <v>0.1038541046452336</v>
+        <v>0.1047415546204372</v>
       </c>
       <c r="M9">
-        <v>0.09879159835737245</v>
+        <v>0.09981446877689802</v>
       </c>
       <c r="N9">
-        <v>0.09461279427147797</v>
+        <v>0.09577826732701826</v>
       </c>
       <c r="O9">
-        <v>0.09110436802257368</v>
+        <v>0.09241944766704402</v>
       </c>
       <c r="P9">
-        <v>0.08811070185063428</v>
+        <v>0.0895821211958541</v>
       </c>
       <c r="Q9">
-        <v>0.08551664682596893</v>
+        <v>0.08715079681966549</v>
       </c>
       <c r="R9">
-        <v>0.08323596637633206</v>
+        <v>0.08503884396116998</v>
       </c>
       <c r="S9">
-        <v>0.08120341458557985</v>
+        <v>0.08318058793469936</v>
       </c>
       <c r="T9">
-        <v>0.07936919668003008</v>
+        <v>0.08152578492778793</v>
       </c>
       <c r="U9">
-        <v>0.07769502595738403</v>
+        <v>0.08003569089477632</v>
       </c>
       <c r="V9">
-        <v>0.07615127278848786</v>
+        <v>0.07868022016634013</v>
       </c>
       <c r="W9">
-        <v>0.07471487485994487</v>
+        <v>0.07743586318142166</v>
       </c>
       <c r="X9">
-        <v>0.07336778719204484</v>
+        <v>0.07628414214365413</v>
       </c>
       <c r="Y9">
-        <v>0.07209582081720479</v>
+        <v>0.07521045376086183</v>
       </c>
       <c r="Z9">
-        <v>0.07088776515075587</v>
+        <v>0.07420319436308623</v>
       </c>
       <c r="AA9">
-        <v>0.0697347199271993</v>
+        <v>0.073253093516172</v>
       </c>
       <c r="AB9">
-        <v>0.06862958355883159</v>
+        <v>0.07235270320628119</v>
       </c>
       <c r="AC9">
-        <v>0.06756665929491311</v>
+        <v>0.07149600416394142</v>
       </c>
       <c r="AD9">
-        <v>0.0665413507703741</v>
+        <v>0.07067810107870579</v>
       </c>
       <c r="AE9">
-        <v>0.0655499258202933</v>
+        <v>0.06989498571565446</v>
       </c>
       <c r="AF9">
-        <v>0.06458933270839677</v>
+        <v>0.06914335219213312</v>
       </c>
     </row>
     <row r="10" spans="1:32">
@@ -1300,94 +1300,94 @@
         <v>1.142341997113088</v>
       </c>
       <c r="C10">
-        <v>0.8084302649704129</v>
+        <v>0.808430264970413</v>
       </c>
       <c r="D10">
-        <v>0.6168240723351753</v>
+        <v>0.6166080345683832</v>
       </c>
       <c r="E10">
-        <v>0.4997975864686093</v>
+        <v>0.4992776919244977</v>
       </c>
       <c r="F10">
-        <v>0.4249078026160135</v>
+        <v>0.4240327925853983</v>
       </c>
       <c r="G10">
-        <v>0.3753756335506869</v>
+        <v>0.3741005511393817</v>
       </c>
       <c r="H10">
-        <v>0.3419408353021999</v>
+        <v>0.3402167470874519</v>
       </c>
       <c r="I10">
-        <v>0.3192006320351402</v>
+        <v>0.3169712350451938</v>
       </c>
       <c r="J10">
-        <v>0.3038478030857222</v>
+        <v>0.3010485015472386</v>
       </c>
       <c r="K10">
-        <v>0.2937714631474307</v>
+        <v>0.2903293520771733</v>
       </c>
       <c r="L10">
-        <v>0.2875740630965927</v>
+        <v>0.283408245865759</v>
       </c>
       <c r="M10">
-        <v>0.2843000829112584</v>
+        <v>0.2793221072532295</v>
       </c>
       <c r="N10">
-        <v>0.2832774960072137</v>
+        <v>0.2773918250829272</v>
       </c>
       <c r="O10">
-        <v>0.2840218138128049</v>
+        <v>0.2771262983843769</v>
       </c>
       <c r="P10">
-        <v>0.2861761395481364</v>
+        <v>0.2781624759638367</v>
       </c>
       <c r="Q10">
-        <v>0.2894726233449555</v>
+        <v>0.2802267893308794</v>
       </c>
       <c r="R10">
-        <v>0.2937070127773909</v>
+        <v>0.2831096762729207</v>
       </c>
       <c r="S10">
-        <v>0.2987214316371269</v>
+        <v>0.2866483297862181</v>
       </c>
       <c r="T10">
-        <v>0.304392456512607</v>
+        <v>0.2907147433414885</v>
       </c>
       <c r="U10">
-        <v>0.3106226829525384</v>
+        <v>0.2952072454780609</v>
       </c>
       <c r="V10">
-        <v>0.3173346401021873</v>
+        <v>0.300044383654251</v>
       </c>
       <c r="W10">
-        <v>0.3244663185284131</v>
+        <v>0.3051604229117463</v>
       </c>
       <c r="X10">
-        <v>0.3319678280612753</v>
+        <v>0.3105019768081191</v>
       </c>
       <c r="Y10">
-        <v>0.3397988621407448</v>
+        <v>0.3160254475178124</v>
       </c>
       <c r="Z10">
-        <v>0.3479267480937904</v>
+        <v>0.3216950547429548</v>
       </c>
       <c r="AA10">
-        <v>0.3563249302648241</v>
+        <v>0.327481300407501</v>
       </c>
       <c r="AB10">
-        <v>0.364971777908979</v>
+        <v>0.3333597609642786</v>
       </c>
       <c r="AC10">
-        <v>0.3738496402227433</v>
+        <v>0.3393101295144335</v>
       </c>
       <c r="AD10">
-        <v>0.3829440918464808</v>
+        <v>0.3453154508357539</v>
       </c>
       <c r="AE10">
-        <v>0.3922433268234772</v>
+        <v>0.3513615070307257</v>
       </c>
       <c r="AF10">
-        <v>0.4017376694027955</v>
+        <v>0.3574363218938514</v>
       </c>
     </row>
     <row r="11" spans="1:32">
@@ -1395,97 +1395,97 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4482735300492182</v>
+        <v>0.4482735300492183</v>
       </c>
       <c r="C11">
-        <v>0.4042959484233922</v>
+        <v>0.4042959484233923</v>
       </c>
       <c r="D11">
-        <v>0.3719112338959266</v>
+        <v>0.3719302284904932</v>
       </c>
       <c r="E11">
-        <v>0.3475758243509404</v>
+        <v>0.3476285673478817</v>
       </c>
       <c r="F11">
-        <v>0.3289724632456774</v>
+        <v>0.3290713472170319</v>
       </c>
       <c r="G11">
-        <v>0.3145377041131194</v>
+        <v>0.3146937766469994</v>
       </c>
       <c r="H11">
-        <v>0.3031878518601727</v>
+        <v>0.3034113699808545</v>
       </c>
       <c r="I11">
-        <v>0.2941541343594229</v>
+        <v>0.2944548643904495</v>
       </c>
       <c r="J11">
-        <v>0.2868802775672942</v>
+        <v>0.2872676518631441</v>
       </c>
       <c r="K11">
-        <v>0.2809569443872439</v>
+        <v>0.2814401369681716</v>
       </c>
       <c r="L11">
-        <v>0.2760786213164888</v>
+        <v>0.2766665779464921</v>
       </c>
       <c r="M11">
-        <v>0.2720145598523935</v>
+        <v>0.2727160033476234</v>
       </c>
       <c r="N11">
-        <v>0.2685887465986364</v>
+        <v>0.269412169657176</v>
       </c>
       <c r="O11">
-        <v>0.265665813387123</v>
+        <v>0.266619466194241</v>
       </c>
       <c r="P11">
-        <v>0.2631409431917235</v>
+        <v>0.2642328200009532</v>
       </c>
       <c r="Q11">
-        <v>0.2609325201627245</v>
+        <v>0.2621703471750741</v>
       </c>
       <c r="R11">
-        <v>0.2589767006620097</v>
+        <v>0.2603679263658241</v>
       </c>
       <c r="S11">
-        <v>0.2572233529760697</v>
+        <v>0.2587751413998716</v>
       </c>
       <c r="T11">
-        <v>0.2556329879295813</v>
+        <v>0.2573522148362921</v>
       </c>
       <c r="U11">
-        <v>0.2541744172885426</v>
+        <v>0.256067669099331</v>
       </c>
       <c r="V11">
-        <v>0.2528229535655291</v>
+        <v>0.2548965286791661</v>
       </c>
       <c r="W11">
-        <v>0.2515590170937357</v>
+        <v>0.253818929219415</v>
       </c>
       <c r="X11">
-        <v>0.2503670524382507</v>
+        <v>0.2528190355576255</v>
       </c>
       <c r="Y11">
-        <v>0.249234681706841</v>
+        <v>0.2518841963054054</v>
       </c>
       <c r="Z11">
-        <v>0.2481520405553036</v>
+        <v>0.2510042808015917</v>
       </c>
       <c r="AA11">
-        <v>0.2471112559116241</v>
+        <v>0.2501711575068308</v>
       </c>
       <c r="AB11">
-        <v>0.2461060341699377</v>
+        <v>0.2493782826353261</v>
       </c>
       <c r="AC11">
-        <v>0.2451313358430786</v>
+        <v>0.24862037505488</v>
       </c>
       <c r="AD11">
-        <v>0.2441831181059896</v>
+        <v>0.2478931589257362</v>
       </c>
       <c r="AE11">
-        <v>0.2432581307947309</v>
+        <v>0.2471931596763692</v>
       </c>
       <c r="AF11">
-        <v>0.2423537545885352</v>
+        <v>0.2465175420720958</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -1493,97 +1493,97 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4920378988480285</v>
+        <v>0.4920378988480286</v>
       </c>
       <c r="C12">
-        <v>0.4047685500301601</v>
+        <v>0.4047685500301602</v>
       </c>
       <c r="D12">
-        <v>0.3440028064819489</v>
+        <v>0.3441310783202156</v>
       </c>
       <c r="E12">
-        <v>0.300095945251612</v>
+        <v>0.3004285218552718</v>
       </c>
       <c r="F12">
-        <v>0.2673361426202765</v>
+        <v>0.2679232857467225</v>
       </c>
       <c r="G12">
-        <v>0.242191893341105</v>
+        <v>0.2430705130786932</v>
       </c>
       <c r="H12">
-        <v>0.2223973727232</v>
+        <v>0.2235970045482887</v>
       </c>
       <c r="I12">
-        <v>0.2064517678276993</v>
+        <v>0.2079974778177049</v>
       </c>
       <c r="J12">
-        <v>0.1933333900547017</v>
+        <v>0.1952471760063891</v>
       </c>
       <c r="K12">
-        <v>0.1823301704058297</v>
+        <v>0.1846316185327094</v>
       </c>
       <c r="L12">
-        <v>0.1729357130826219</v>
+        <v>0.1756422905452749</v>
       </c>
       <c r="M12">
-        <v>0.1647835900921415</v>
+        <v>0.1679107678530125</v>
       </c>
       <c r="N12">
-        <v>0.1576046594972355</v>
+        <v>0.1611659656272039</v>
       </c>
       <c r="O12">
-        <v>0.1511986513437152</v>
+        <v>0.155205705487959</v>
       </c>
       <c r="P12">
-        <v>0.1454148320566859</v>
+        <v>0.1498773853230818</v>
       </c>
       <c r="Q12">
-        <v>0.1401385872172649</v>
+        <v>0.1450645774807425</v>
       </c>
       <c r="R12">
-        <v>0.1352819492649928</v>
+        <v>0.1406775742673078</v>
       </c>
       <c r="S12">
-        <v>0.1307768085053677</v>
+        <v>0.136646615242154</v>
       </c>
       <c r="T12">
-        <v>0.126569983054437</v>
+        <v>0.1329169701663615</v>
       </c>
       <c r="U12">
-        <v>0.1226195979814079</v>
+        <v>0.1294453272845676</v>
       </c>
       <c r="V12">
-        <v>0.1188924000608731</v>
+        <v>0.1261971134254927</v>
       </c>
       <c r="W12">
-        <v>0.1153617498023468</v>
+        <v>0.1231444879985494</v>
       </c>
       <c r="X12">
-        <v>0.1120061092710568</v>
+        <v>0.1202648299553067</v>
       </c>
       <c r="Y12">
-        <v>0.1088078963678211</v>
+        <v>0.1175395889716672</v>
       </c>
       <c r="Z12">
-        <v>0.1057526122233143</v>
+        <v>0.1149534080643451</v>
       </c>
       <c r="AA12">
-        <v>0.1028281735779318</v>
+        <v>0.1124934500090802</v>
       </c>
       <c r="AB12">
-        <v>0.100024399936018</v>
+        <v>0.1101488777702017</v>
       </c>
       <c r="AC12">
-        <v>0.09733261817655031</v>
+        <v>0.1079104519672573</v>
       </c>
       <c r="AD12">
-        <v>0.09474535668509342</v>
+        <v>0.1057702177146015</v>
       </c>
       <c r="AE12">
-        <v>0.09225610796753529</v>
+        <v>0.1037212600010698</v>
       </c>
       <c r="AF12">
-        <v>0.08985914381766402</v>
+        <v>0.1017575118333352</v>
       </c>
     </row>
     <row r="13" spans="1:32">
@@ -1591,97 +1591,97 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5528235542392858</v>
+        <v>0.5528235542392855</v>
       </c>
       <c r="C13">
-        <v>0.4784334037231904</v>
+        <v>0.4784334037231907</v>
       </c>
       <c r="D13">
-        <v>0.4121487835570324</v>
+        <v>0.412945077561436</v>
       </c>
       <c r="E13">
-        <v>0.3538470735314671</v>
+        <v>0.3558820731270816</v>
       </c>
       <c r="F13">
-        <v>0.3030611450628333</v>
+        <v>0.3065230946147732</v>
       </c>
       <c r="G13">
-        <v>0.2591409316026752</v>
+        <v>0.2640452672477173</v>
       </c>
       <c r="H13">
-        <v>0.2213615304155422</v>
+        <v>0.2276136276715056</v>
       </c>
       <c r="I13">
-        <v>0.188991786186206</v>
+        <v>0.1964332167088758</v>
       </c>
       <c r="J13">
-        <v>0.1613350165597316</v>
+        <v>0.1697762814356189</v>
       </c>
       <c r="K13">
-        <v>0.1377508763940866</v>
+        <v>0.146993613818407</v>
       </c>
       <c r="L13">
-        <v>0.1176649428109574</v>
+        <v>0.1275162611972078</v>
       </c>
       <c r="M13">
-        <v>0.1005706488950824</v>
+        <v>0.1108517613543052</v>
       </c>
       <c r="N13">
-        <v>0.08602671432619625</v>
+        <v>0.09657757534520395</v>
       </c>
       <c r="O13">
-        <v>0.07365215024140294</v>
+        <v>0.08433337750712631</v>
       </c>
       <c r="P13">
-        <v>0.0631201658985001</v>
+        <v>0.07381318788186914</v>
       </c>
       <c r="Q13">
-        <v>0.05415179401741348</v>
+        <v>0.06475789603225002</v>
       </c>
       <c r="R13">
-        <v>0.04650971224482246</v>
+        <v>0.05694845076193634</v>
       </c>
       <c r="S13">
-        <v>0.03999251804758144</v>
+        <v>0.05019982312430336</v>
       </c>
       <c r="T13">
-        <v>0.03442957542054043</v>
+        <v>0.04435575263705639</v>
       </c>
       <c r="U13">
-        <v>0.02967646707181436</v>
+        <v>0.03928423334931675</v>
       </c>
       <c r="V13">
-        <v>0.02561103649575106</v>
+        <v>0.03487367048934148</v>
       </c>
       <c r="W13">
-        <v>0.02212997782782013</v>
+        <v>0.03102962890625329</v>
       </c>
       <c r="X13">
-        <v>0.01914591908210779</v>
+        <v>0.02767209442150961</v>
       </c>
       <c r="Y13">
-        <v>0.01658494069652809</v>
+        <v>0.02473317415386399</v>
       </c>
       <c r="Z13">
-        <v>0.01438447262349781</v>
+        <v>0.02215516920434614</v>
       </c>
       <c r="AA13">
-        <v>0.01249151719665587</v>
+        <v>0.01988896120397528</v>
       </c>
       <c r="AB13">
-        <v>0.0108611502425469</v>
+        <v>0.01789266224234417</v>
       </c>
       <c r="AC13">
-        <v>0.009455258524929839</v>
+        <v>0.01613048514106279</v>
       </c>
       <c r="AD13">
-        <v>0.008241477109656536</v>
+        <v>0.01457179770069033</v>
       </c>
       <c r="AE13">
-        <v>0.007192295352585583</v>
+        <v>0.01319033037202393</v>
       </c>
       <c r="AF13">
-        <v>0.006284304817714394</v>
+        <v>0.0119635118050258</v>
       </c>
     </row>
   </sheetData>
